--- a/logistica/cargue.xlsx
+++ b/logistica/cargue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectosWeb\assigment\logistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB42340B-9062-4182-BB90-3AE19AF0E19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E90956-EE47-4A96-ABDA-3BF83B62DB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{487DD5BE-BA3A-4526-BABC-C231642C0B8F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
   <si>
     <t>Descripción</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Total Entrega</t>
-  </si>
-  <si>
-    <t>19071</t>
   </si>
   <si>
     <t>BON BON BUM FRESA INTENSA*24 UND</t>
@@ -309,8 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,14 +626,14 @@
   <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -660,7 +658,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -695,11 +693,11 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1">
+        <v>19071</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
       </c>
       <c r="T6">
         <v>15</v>
@@ -716,10 +714,10 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
       </c>
       <c r="T7">
         <v>15</v>
@@ -736,10 +734,10 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
       </c>
       <c r="T8">
         <v>24</v>
@@ -756,16 +754,16 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
       </c>
       <c r="T9">
         <v>4</v>
       </c>
       <c r="Y9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA9">
         <v>4863.6728000000003</v>
@@ -776,16 +774,16 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
       </c>
       <c r="T10">
         <v>4</v>
       </c>
       <c r="Y10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA10">
         <v>4667.9178000000002</v>
@@ -796,16 +794,16 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
       </c>
       <c r="T11">
         <v>4</v>
       </c>
       <c r="Y11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA11">
         <v>7075.1450000000004</v>
@@ -816,16 +814,16 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
         <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
       </c>
       <c r="T12">
         <v>10</v>
       </c>
       <c r="Y12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA12">
         <v>5727.232</v>
@@ -836,16 +834,16 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="T13">
         <v>9</v>
       </c>
       <c r="Y13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA13">
         <v>7131.0749999999998</v>
@@ -856,16 +854,16 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
       </c>
       <c r="T14">
         <v>9</v>
       </c>
       <c r="Y14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA14">
         <v>4222.7150000000001</v>
@@ -876,16 +874,16 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
       </c>
       <c r="T15">
         <v>8</v>
       </c>
       <c r="Y15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA15">
         <v>5949.8334000000004</v>
@@ -896,16 +894,16 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
         <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
       </c>
       <c r="T16">
         <v>8</v>
       </c>
       <c r="Y16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA16">
         <v>6222.7718000000004</v>
@@ -916,10 +914,10 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
         <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
       </c>
       <c r="T17">
         <v>12</v>
@@ -936,16 +934,16 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
         <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
       </c>
       <c r="T18">
         <v>1</v>
       </c>
       <c r="Y18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA18">
         <v>8107.6127999999999</v>
@@ -956,16 +954,16 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
         <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
       </c>
       <c r="T19">
         <v>4</v>
       </c>
       <c r="Y19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA19">
         <v>5726.1134000000002</v>
@@ -976,16 +974,16 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
         <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
       </c>
       <c r="T20">
         <v>4</v>
       </c>
       <c r="Y20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA20">
         <v>5726.1134000000002</v>
@@ -996,16 +994,16 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
         <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
       </c>
       <c r="T21">
         <v>2</v>
       </c>
       <c r="Y21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA21">
         <v>5463.2424000000001</v>
@@ -1016,16 +1014,16 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
         <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
       </c>
       <c r="T22">
         <v>2</v>
       </c>
       <c r="Y22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA22">
         <v>5463.2424000000001</v>
@@ -1036,16 +1034,16 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
         <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
       </c>
       <c r="T23">
         <v>3</v>
       </c>
       <c r="Y23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA23">
         <v>5463.2424000000001</v>
@@ -1056,16 +1054,16 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
         <v>51</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
       </c>
       <c r="T24">
         <v>3</v>
       </c>
       <c r="Y24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA24">
         <v>5463.2424000000001</v>
@@ -1076,10 +1074,10 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
         <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
       </c>
       <c r="T25">
         <v>30</v>
@@ -1096,10 +1094,10 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
         <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
       </c>
       <c r="T26">
         <v>16</v>
@@ -1116,16 +1114,16 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
         <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
       </c>
       <c r="T27">
         <v>10</v>
       </c>
       <c r="Y27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA27">
         <v>3237.2284</v>
@@ -1136,16 +1134,16 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
         <v>59</v>
-      </c>
-      <c r="C28" t="s">
-        <v>60</v>
       </c>
       <c r="T28">
         <v>10</v>
       </c>
       <c r="Y28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA28">
         <v>6361.4781999999996</v>
@@ -1156,16 +1154,16 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
         <v>61</v>
-      </c>
-      <c r="C29" t="s">
-        <v>62</v>
       </c>
       <c r="T29">
         <v>12</v>
       </c>
       <c r="Y29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AA29">
         <v>733.80160000000001</v>
@@ -1176,16 +1174,16 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
         <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>65</v>
       </c>
       <c r="T30">
         <v>2</v>
       </c>
       <c r="Y30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA30">
         <v>11731.8768</v>
@@ -1196,16 +1194,16 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
         <v>66</v>
-      </c>
-      <c r="C31" t="s">
-        <v>67</v>
       </c>
       <c r="T31">
         <v>8</v>
       </c>
       <c r="Y31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA31">
         <v>6349.1736000000001</v>
@@ -1216,16 +1214,16 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
         <v>68</v>
-      </c>
-      <c r="C32" t="s">
-        <v>69</v>
       </c>
       <c r="T32">
         <v>4</v>
       </c>
       <c r="Y32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA32">
         <v>10297.8316</v>
@@ -1236,16 +1234,16 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
         <v>70</v>
-      </c>
-      <c r="C33" t="s">
-        <v>71</v>
       </c>
       <c r="T33">
         <v>4</v>
       </c>
       <c r="Y33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA33">
         <v>10297.8316</v>
@@ -1256,16 +1254,16 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
         <v>72</v>
-      </c>
-      <c r="C34" t="s">
-        <v>73</v>
       </c>
       <c r="T34">
         <v>5</v>
       </c>
       <c r="Y34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA34">
         <v>3660.0592000000001</v>
@@ -1276,16 +1274,16 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
         <v>75</v>
-      </c>
-      <c r="C35" t="s">
-        <v>76</v>
       </c>
       <c r="T35">
         <v>5</v>
       </c>
       <c r="Y35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA35">
         <v>4771.9476000000004</v>
@@ -1296,16 +1294,16 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
         <v>77</v>
-      </c>
-      <c r="C36" t="s">
-        <v>78</v>
       </c>
       <c r="T36">
         <v>5</v>
       </c>
       <c r="Y36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA36">
         <v>4771.9476000000004</v>

--- a/logistica/cargue.xlsx
+++ b/logistica/cargue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectosWeb\assigment\logistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E90956-EE47-4A96-ABDA-3BF83B62DB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EC2E1C-2590-4D20-A38B-B1C905FB7BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{487DD5BE-BA3A-4526-BABC-C231642C0B8F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
   <si>
     <t>Descripción</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Precio</t>
-  </si>
-  <si>
-    <t>ALDOR</t>
   </si>
   <si>
     <t>TROLLI GOMAS MAGENTA SUR*24 BANAN-MORDISC+OINK+EMOCION</t>
@@ -626,14 +623,14 @@
   <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -652,22 +649,22 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
+      <c r="A2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="Y3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA3">
         <v>21432.376</v>
@@ -681,7 +678,7 @@
         <v>1218</v>
       </c>
       <c r="X4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB4">
         <v>21432.376</v>
@@ -697,13 +694,13 @@
         <v>19071</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T6">
         <v>15</v>
       </c>
       <c r="Y6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA6">
         <v>6049.7835990000003</v>
@@ -714,16 +711,16 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
       </c>
       <c r="T7">
         <v>15</v>
       </c>
       <c r="Y7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA7">
         <v>6049.7835990000003</v>
@@ -734,16 +731,16 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
       </c>
       <c r="T8">
         <v>24</v>
       </c>
       <c r="Y8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA8">
         <v>4317.7960000000003</v>
@@ -754,16 +751,16 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
       </c>
       <c r="T9">
         <v>4</v>
       </c>
       <c r="Y9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA9">
         <v>4863.6728000000003</v>
@@ -774,16 +771,16 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
       </c>
       <c r="T10">
         <v>4</v>
       </c>
       <c r="Y10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA10">
         <v>4667.9178000000002</v>
@@ -794,16 +791,16 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
       </c>
       <c r="T11">
         <v>4</v>
       </c>
       <c r="Y11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA11">
         <v>7075.1450000000004</v>
@@ -814,16 +811,16 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
       </c>
       <c r="T12">
         <v>10</v>
       </c>
       <c r="Y12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA12">
         <v>5727.232</v>
@@ -834,16 +831,16 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
       </c>
       <c r="T13">
         <v>9</v>
       </c>
       <c r="Y13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA13">
         <v>7131.0749999999998</v>
@@ -854,16 +851,16 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
       </c>
       <c r="T14">
         <v>9</v>
       </c>
       <c r="Y14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA14">
         <v>4222.7150000000001</v>
@@ -874,16 +871,16 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
       </c>
       <c r="T15">
         <v>8</v>
       </c>
       <c r="Y15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA15">
         <v>5949.8334000000004</v>
@@ -894,16 +891,16 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
       </c>
       <c r="T16">
         <v>8</v>
       </c>
       <c r="Y16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA16">
         <v>6222.7718000000004</v>
@@ -914,16 +911,16 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
       </c>
       <c r="T17">
         <v>12</v>
       </c>
       <c r="Y17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA17">
         <v>9273.1939999999995</v>
@@ -934,16 +931,16 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
         <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
       </c>
       <c r="T18">
         <v>1</v>
       </c>
       <c r="Y18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA18">
         <v>8107.6127999999999</v>
@@ -954,16 +951,16 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
         <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
       </c>
       <c r="T19">
         <v>4</v>
       </c>
       <c r="Y19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA19">
         <v>5726.1134000000002</v>
@@ -974,16 +971,16 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
         <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
       </c>
       <c r="T20">
         <v>4</v>
       </c>
       <c r="Y20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA20">
         <v>5726.1134000000002</v>
@@ -994,16 +991,16 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
       </c>
       <c r="T21">
         <v>2</v>
       </c>
       <c r="Y21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA21">
         <v>5463.2424000000001</v>
@@ -1014,16 +1011,16 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
         <v>45</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
       </c>
       <c r="T22">
         <v>2</v>
       </c>
       <c r="Y22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA22">
         <v>5463.2424000000001</v>
@@ -1034,16 +1031,16 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
         <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
       </c>
       <c r="T23">
         <v>3</v>
       </c>
       <c r="Y23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA23">
         <v>5463.2424000000001</v>
@@ -1054,16 +1051,16 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
         <v>50</v>
-      </c>
-      <c r="C24" t="s">
-        <v>51</v>
       </c>
       <c r="T24">
         <v>3</v>
       </c>
       <c r="Y24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA24">
         <v>5463.2424000000001</v>
@@ -1074,16 +1071,16 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
         <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
       </c>
       <c r="T25">
         <v>30</v>
       </c>
       <c r="Y25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA25">
         <v>3166.7566000000002</v>
@@ -1094,16 +1091,16 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
         <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
       </c>
       <c r="T26">
         <v>16</v>
       </c>
       <c r="Y26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA26">
         <v>7607.5986000000003</v>
@@ -1114,16 +1111,16 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
         <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
       </c>
       <c r="T27">
         <v>10</v>
       </c>
       <c r="Y27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA27">
         <v>3237.2284</v>
@@ -1134,16 +1131,16 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
         <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
       </c>
       <c r="T28">
         <v>10</v>
       </c>
       <c r="Y28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA28">
         <v>6361.4781999999996</v>
@@ -1154,16 +1151,16 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
         <v>60</v>
-      </c>
-      <c r="C29" t="s">
-        <v>61</v>
       </c>
       <c r="T29">
         <v>12</v>
       </c>
       <c r="Y29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA29">
         <v>733.80160000000001</v>
@@ -1174,16 +1171,16 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
         <v>63</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
       </c>
       <c r="T30">
         <v>2</v>
       </c>
       <c r="Y30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA30">
         <v>11731.8768</v>
@@ -1194,16 +1191,16 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
         <v>65</v>
-      </c>
-      <c r="C31" t="s">
-        <v>66</v>
       </c>
       <c r="T31">
         <v>8</v>
       </c>
       <c r="Y31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA31">
         <v>6349.1736000000001</v>
@@ -1214,16 +1211,16 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
         <v>67</v>
-      </c>
-      <c r="C32" t="s">
-        <v>68</v>
       </c>
       <c r="T32">
         <v>4</v>
       </c>
       <c r="Y32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA32">
         <v>10297.8316</v>
@@ -1234,16 +1231,16 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
         <v>69</v>
-      </c>
-      <c r="C33" t="s">
-        <v>70</v>
       </c>
       <c r="T33">
         <v>4</v>
       </c>
       <c r="Y33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA33">
         <v>10297.8316</v>
@@ -1254,16 +1251,16 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
         <v>71</v>
-      </c>
-      <c r="C34" t="s">
-        <v>72</v>
       </c>
       <c r="T34">
         <v>5</v>
       </c>
       <c r="Y34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA34">
         <v>3660.0592000000001</v>
@@ -1274,16 +1271,16 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
         <v>74</v>
-      </c>
-      <c r="C35" t="s">
-        <v>75</v>
       </c>
       <c r="T35">
         <v>5</v>
       </c>
       <c r="Y35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA35">
         <v>4771.9476000000004</v>
@@ -1294,16 +1291,16 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
         <v>76</v>
-      </c>
-      <c r="C36" t="s">
-        <v>77</v>
       </c>
       <c r="T36">
         <v>5</v>
       </c>
       <c r="Y36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA36">
         <v>4771.9476000000004</v>

--- a/logistica/cargue.xlsx
+++ b/logistica/cargue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectosWeb\assigment\logistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EC2E1C-2590-4D20-A38B-B1C905FB7BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7E3A07-69A3-4BC7-8972-B4C534452B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{487DD5BE-BA3A-4526-BABC-C231642C0B8F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
   <si>
     <t>Descripción</t>
   </si>
@@ -267,9 +267,6 @@
   </si>
   <si>
     <t>Codigo</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
 </sst>
 </file>
@@ -622,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44158381-E68A-43A7-8D84-6BE4411C4E5E}">
   <dimension ref="A1:AF36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -655,7 +652,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>

--- a/logistica/cargue.xlsx
+++ b/logistica/cargue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectosWeb\assigment\logistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025859F8-A70B-495D-AF81-159C34271A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0915EF1A-CD19-4586-819B-BF36F770DD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1612C9D2-C737-4870-A44D-C5BEBD0E1D1B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9BC25289-FCA6-4F49-AC5D-3FADFA3753A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="521">
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Venta</t>
+  </si>
+  <si>
+    <t>Cargue</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>ALDOR</t>
+  </si>
   <si>
     <t>1235</t>
   </si>
@@ -62,6 +77,9 @@
     <t>Total Entrega</t>
   </si>
   <si>
+    <t>ALIMENTOS CONCENTRADOS RAZA</t>
+  </si>
+  <si>
     <t>1165</t>
   </si>
   <si>
@@ -134,6 +152,9 @@
     <t>SUPERCAT DELCIOSO SABOR*8KG</t>
   </si>
   <si>
+    <t>AZULK SA</t>
+  </si>
+  <si>
     <t>1933</t>
   </si>
   <si>
@@ -185,6 +206,9 @@
     <t>SUPER RIEL BARRA LIQUID FLORAL*925ML</t>
   </si>
   <si>
+    <t>COLOMBIANA DE COMERCIO CORBETA</t>
+  </si>
+  <si>
     <t>9126</t>
   </si>
   <si>
@@ -371,6 +395,9 @@
     <t>VICKVAPORUB*12GR</t>
   </si>
   <si>
+    <t>COLOMBINA</t>
+  </si>
+  <si>
     <t>19126</t>
   </si>
   <si>
@@ -920,6 +947,9 @@
     <t>XTIME YERBABUEN*100UN</t>
   </si>
   <si>
+    <t>COMESTIBLES ITALO SA</t>
+  </si>
+  <si>
     <t>5010</t>
   </si>
   <si>
@@ -1028,6 +1058,9 @@
     <t>WAFER PAQ VAINILLA 117 GR</t>
   </si>
   <si>
+    <t>HARINERA DEL VALLES.A.</t>
+  </si>
+  <si>
     <t>10003</t>
   </si>
   <si>
@@ -1088,6 +1121,9 @@
     <t>TRIGO HAZ DE OROS *500GR</t>
   </si>
   <si>
+    <t>HENKEL COLOMBIANA SAS</t>
+  </si>
+  <si>
     <t>2964</t>
   </si>
   <si>
@@ -1124,6 +1160,9 @@
     <t>KONZIL CP SEDA LIQ PROVIT B5 *18SOB</t>
   </si>
   <si>
+    <t>INDUSTRIAS KATORI</t>
+  </si>
+  <si>
     <t>1601</t>
   </si>
   <si>
@@ -1136,12 +1175,18 @@
     <t>KATORI ESPIRAL *50</t>
   </si>
   <si>
+    <t>INVERSIONES VADISA SOCIEDAD POR ACCIONES SIMPLIFICADA</t>
+  </si>
+  <si>
     <t>3869</t>
   </si>
   <si>
     <t>BOLIG NEGRO OE-076F SG DISP*12</t>
   </si>
   <si>
+    <t>J&amp;J DE COLOMBIA SA</t>
+  </si>
+  <si>
     <t>2130</t>
   </si>
   <si>
@@ -1184,6 +1229,9 @@
     <t>SH J&amp;J BABY ORIGINAL*25ML DISPL PG 10 LLV 12</t>
   </si>
   <si>
+    <t>KELLOGG DE COLOMBIA</t>
+  </si>
+  <si>
     <t>4061</t>
   </si>
   <si>
@@ -1196,6 +1244,9 @@
     <t>ZUCARITAS 39G*8</t>
   </si>
   <si>
+    <t>LABORATORIOS NATURAL FRESHLY</t>
+  </si>
+  <si>
     <t>1009</t>
   </si>
   <si>
@@ -1214,6 +1265,9 @@
     <t>VINAGRE DE MANZANA FR*375ML</t>
   </si>
   <si>
+    <t>PAPELES NACIONALES SA</t>
+  </si>
+  <si>
     <t>2456</t>
   </si>
   <si>
@@ -1226,6 +1280,9 @@
     <t>PH ROSAL G 2EN1 PAG18 LLV19</t>
   </si>
   <si>
+    <t>PFIZER CONSUMER HEALTCHARE</t>
+  </si>
+  <si>
     <t>1305</t>
   </si>
   <si>
@@ -1256,6 +1313,9 @@
     <t>OF 1 ADVIL ULTRA*20 GTS 1 PAN HARINA BCA*500GR</t>
   </si>
   <si>
+    <t>UNILEVER</t>
+  </si>
+  <si>
     <t>33233</t>
   </si>
   <si>
@@ -1481,6 +1541,9 @@
     <t>SEDAL SH KERAT ANTIOX*24ML DOBLE CONTENIDO</t>
   </si>
   <si>
+    <t>VELAS Y VELONES SAN JORGE</t>
+  </si>
+  <si>
     <t>6035</t>
   </si>
   <si>
@@ -1511,16 +1574,25 @@
     <t>VELON BLANCO 02 *12 PEQ</t>
   </si>
   <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Venta</t>
-  </si>
-  <si>
-    <t>Cargue</t>
-  </si>
-  <si>
-    <t>Precio</t>
+    <t>Asesores</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>JOSE DAVID CALDERON CASAS</t>
+  </si>
+  <si>
+    <t>3177309102</t>
+  </si>
+  <si>
+    <t>JEISSON HERNANDO GARCIA</t>
+  </si>
+  <si>
+    <t>3155152244</t>
   </si>
   <si>
     <t>Codigo</t>
@@ -1874,52 +1946,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D749680B-BD71-4FF1-B7EE-59E399104B0D}">
-  <dimension ref="A1:AF265"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8EA2C0-375B-419A-9E83-8A98608339E7}">
+  <dimension ref="A1:AF270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="D264" sqref="D264"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="C1" t="s">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="T1" t="s">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="Y1" t="s">
-        <v>494</v>
+        <v>2</v>
       </c>
       <c r="AA1" t="s">
-        <v>495</v>
+        <v>3</v>
       </c>
       <c r="AF1" t="s">
-        <v>495</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="Y3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA3">
         <v>5900.02</v>
@@ -1930,16 +2002,16 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T4">
         <v>1</v>
       </c>
       <c r="Y4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA4">
         <v>6549.76</v>
@@ -1950,16 +2022,16 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T5">
         <v>1</v>
       </c>
       <c r="Y5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AA5">
         <v>22800.400000000001</v>
@@ -1969,33 +2041,30 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0</v>
-      </c>
       <c r="X6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB6">
         <v>35250.18</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0</v>
+      <c r="A7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="T8">
         <v>2</v>
       </c>
       <c r="Y8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AA8">
         <v>20212.150000000001</v>
@@ -2006,16 +2075,16 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="T9">
         <v>5</v>
       </c>
       <c r="Y9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AA9">
         <v>25566.134999999998</v>
@@ -2026,16 +2095,16 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="T10">
         <v>3</v>
       </c>
       <c r="Y10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AA10">
         <v>37854.820500000002</v>
@@ -2046,16 +2115,16 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="T11">
         <v>5</v>
       </c>
       <c r="Y11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AA11">
         <v>2556.6134999999999</v>
@@ -2066,16 +2135,16 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="T12">
         <v>2</v>
       </c>
       <c r="Y12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AA12">
         <v>60153.313499999997</v>
@@ -2086,16 +2155,16 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="T13">
         <v>32</v>
       </c>
       <c r="Y13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="AA13">
         <v>2096.1990000000001</v>
@@ -2106,16 +2175,16 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="T14">
         <v>4</v>
       </c>
       <c r="Y14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA14">
         <v>4186.518</v>
@@ -2126,16 +2195,16 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="T15">
         <v>4</v>
       </c>
       <c r="Y15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA15">
         <v>7637.3429999999998</v>
@@ -2146,16 +2215,16 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="T16">
         <v>1</v>
       </c>
       <c r="Y16" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AA16">
         <v>57662.020499999999</v>
@@ -2165,33 +2234,30 @@
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>0</v>
-      </c>
       <c r="X17" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB17">
         <v>586944.96349999995</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>0</v>
+      <c r="A18" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="T19">
         <v>3</v>
       </c>
       <c r="Y19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AA19">
         <v>1222.1300000000001</v>
@@ -2202,16 +2268,16 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="T20">
         <v>3</v>
       </c>
       <c r="Y20" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AA20">
         <v>1222.0574340000001</v>
@@ -2222,16 +2288,16 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="T21">
         <v>2</v>
       </c>
       <c r="Y21" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA21">
         <v>5267.302807</v>
@@ -2242,16 +2308,16 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="T22">
         <v>5</v>
       </c>
       <c r="Y22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AA22">
         <v>2917.3648189999999</v>
@@ -2262,16 +2328,16 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="T23">
         <v>29</v>
       </c>
       <c r="Y23" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="AA23">
         <v>30442.217193</v>
@@ -2282,16 +2348,16 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="T24">
         <v>5</v>
       </c>
       <c r="Y24" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AA24">
         <v>11418.035481999999</v>
@@ -2302,16 +2368,16 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="T25">
         <v>2</v>
       </c>
       <c r="Y25" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA25">
         <v>5007.4184100000002</v>
@@ -2321,33 +2387,30 @@
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>0</v>
-      </c>
       <c r="X26" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB26">
         <v>982383.30483200005</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>0</v>
+      <c r="A27" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="T28">
         <v>107</v>
       </c>
       <c r="Y28" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AA28">
         <v>880.68707199999994</v>
@@ -2358,16 +2421,16 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="T29">
         <v>107</v>
       </c>
       <c r="Y29" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="AA29">
         <v>1681.4264579999999</v>
@@ -2378,16 +2441,16 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="T30">
         <v>31</v>
       </c>
       <c r="Y30" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="AA30">
         <v>3441.5525659999998</v>
@@ -2398,16 +2461,16 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="T31">
         <v>2</v>
       </c>
       <c r="Y31" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA31">
         <v>8001.908289</v>
@@ -2418,16 +2481,16 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="T32">
         <v>2</v>
       </c>
       <c r="Y32" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA32">
         <v>3541.4980479999999</v>
@@ -2438,16 +2501,16 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="T33">
         <v>1</v>
       </c>
       <c r="Y33" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA33">
         <v>21997.585362000002</v>
@@ -2458,16 +2521,16 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="T34">
         <v>4</v>
       </c>
       <c r="Y34" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA34">
         <v>17553.951217000002</v>
@@ -2478,16 +2541,16 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="T35">
         <v>3</v>
       </c>
       <c r="Y35" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AA35">
         <v>2269.7073129999999</v>
@@ -2498,16 +2561,16 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="T36">
         <v>8</v>
       </c>
       <c r="Y36" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AA36">
         <v>7761.1219520000004</v>
@@ -2518,16 +2581,16 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="T37">
         <v>3</v>
       </c>
       <c r="Y37" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AA37">
         <v>7685.6585420000001</v>
@@ -2538,16 +2601,16 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="T38">
         <v>2</v>
       </c>
       <c r="Y38" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA38">
         <v>7761.1219520000004</v>
@@ -2558,16 +2621,16 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="T39">
         <v>9</v>
       </c>
       <c r="Y39" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AA39">
         <v>7761.1219520000004</v>
@@ -2578,16 +2641,16 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="T40">
         <v>6</v>
       </c>
       <c r="Y40" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AA40">
         <v>7140.2321959999999</v>
@@ -2598,16 +2661,16 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="T41">
         <v>2</v>
       </c>
       <c r="Y41" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA41">
         <v>18846.987807000001</v>
@@ -2618,16 +2681,16 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="T42">
         <v>1</v>
       </c>
       <c r="Y42" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA42">
         <v>18316.567072000002</v>
@@ -2638,16 +2701,16 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="T43">
         <v>1</v>
       </c>
       <c r="Y43" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA43">
         <v>7460.7195179999999</v>
@@ -2658,16 +2721,16 @@
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="T44">
         <v>3</v>
       </c>
       <c r="Y44" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AA44">
         <v>7453.4634100000003</v>
@@ -2678,16 +2741,16 @@
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="T45">
         <v>7</v>
       </c>
       <c r="Y45" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AA45">
         <v>7453.4634100000003</v>
@@ -2698,16 +2761,16 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="T46">
         <v>3</v>
       </c>
       <c r="Y46" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AA46">
         <v>6404.7106139999996</v>
@@ -2718,16 +2781,16 @@
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="T47">
         <v>1</v>
       </c>
       <c r="Y47" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA47">
         <v>29025.115855</v>
@@ -2738,16 +2801,16 @@
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="T48">
         <v>3</v>
       </c>
       <c r="Y48" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AA48">
         <v>58050.231711</v>
@@ -2758,16 +2821,16 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="T49">
         <v>4</v>
       </c>
       <c r="Y49" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA49">
         <v>35782.037433999998</v>
@@ -2778,16 +2841,16 @@
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="T50">
         <v>2</v>
       </c>
       <c r="Y50" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA50">
         <v>42940.961337000001</v>
@@ -2798,16 +2861,16 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="T51">
         <v>12</v>
       </c>
       <c r="Y51" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AA51">
         <v>806.29756599999996</v>
@@ -2818,16 +2881,16 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="T52">
         <v>1</v>
       </c>
       <c r="Y52" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA52">
         <v>39369.553662999999</v>
@@ -2838,16 +2901,16 @@
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="T53">
         <v>1</v>
       </c>
       <c r="Y53" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA53">
         <v>39369.553662999999</v>
@@ -2858,16 +2921,16 @@
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="T54">
         <v>7</v>
       </c>
       <c r="Y54" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AA54">
         <v>3892.2804900000001</v>
@@ -2877,33 +2940,30 @@
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>0</v>
-      </c>
       <c r="X55" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB55">
         <v>1421369.8411079999</v>
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>0</v>
+      <c r="A56" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="T57">
         <v>2</v>
       </c>
       <c r="Y57" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA57">
         <v>2267.9999969999999</v>
@@ -2914,16 +2974,16 @@
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="T58">
         <v>2</v>
       </c>
       <c r="Y58" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA58">
         <v>7384.8544000000002</v>
@@ -2934,16 +2994,16 @@
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="T59">
         <v>8</v>
       </c>
       <c r="Y59" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AA59">
         <v>6435.9399990000002</v>
@@ -2954,16 +3014,16 @@
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="T60">
         <v>1</v>
       </c>
       <c r="Y60" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA60">
         <v>6435.9399990000002</v>
@@ -2974,16 +3034,16 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="T61">
         <v>1</v>
       </c>
       <c r="Y61" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA61">
         <v>6435.9399990000002</v>
@@ -2994,16 +3054,16 @@
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="T62">
         <v>7</v>
       </c>
       <c r="Y62" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AA62">
         <v>6435.9399990000002</v>
@@ -3014,16 +3074,16 @@
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="T63">
         <v>2</v>
       </c>
       <c r="Y63" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA63">
         <v>6435.9399990000002</v>
@@ -3034,16 +3094,16 @@
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="T64">
         <v>2</v>
       </c>
       <c r="Y64" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA64">
         <v>4677.8900000000003</v>
@@ -3054,16 +3114,16 @@
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="T65">
         <v>1</v>
       </c>
       <c r="Y65" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA65">
         <v>4677.8900000000003</v>
@@ -3074,16 +3134,16 @@
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="T66">
         <v>2</v>
       </c>
       <c r="Y66" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA66">
         <v>4677.8900000000003</v>
@@ -3094,16 +3154,16 @@
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="T67">
         <v>1</v>
       </c>
       <c r="Y67" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA67">
         <v>6853.21</v>
@@ -3114,16 +3174,16 @@
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="T68">
         <v>2</v>
       </c>
       <c r="Y68" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA68">
         <v>6853.21</v>
@@ -3134,16 +3194,16 @@
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="T69">
         <v>1</v>
       </c>
       <c r="Y69" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA69">
         <v>6853.21</v>
@@ -3154,16 +3214,16 @@
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C70" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="T70">
         <v>2</v>
       </c>
       <c r="Y70" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA70">
         <v>4593.3999999999996</v>
@@ -3174,16 +3234,16 @@
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="T71">
         <v>8</v>
       </c>
       <c r="Y71" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AA71">
         <v>4593.3999999999996</v>
@@ -3194,16 +3254,16 @@
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="T72">
         <v>1</v>
       </c>
       <c r="Y72" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA72">
         <v>4508.91</v>
@@ -3214,16 +3274,16 @@
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="T73">
         <v>1</v>
       </c>
       <c r="Y73" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA73">
         <v>3747.31</v>
@@ -3234,16 +3294,16 @@
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="T74">
         <v>4</v>
       </c>
       <c r="Y74" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA74">
         <v>9393.86</v>
@@ -3254,16 +3314,16 @@
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C75" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="T75">
         <v>3</v>
       </c>
       <c r="Y75" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AA75">
         <v>8239.56</v>
@@ -3274,16 +3334,16 @@
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C76" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="T76">
         <v>5</v>
       </c>
       <c r="Y76" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AA76">
         <v>7800.45</v>
@@ -3294,16 +3354,16 @@
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="T77">
         <v>3</v>
       </c>
       <c r="Y77" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AA77">
         <v>4323.2700000000004</v>
@@ -3314,16 +3374,16 @@
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="T78">
         <v>1</v>
       </c>
       <c r="Y78" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA78">
         <v>4323.2700000000004</v>
@@ -3334,16 +3394,16 @@
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C79" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="T79">
         <v>2</v>
       </c>
       <c r="Y79" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA79">
         <v>7586.25</v>
@@ -3354,16 +3414,16 @@
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="T80">
         <v>2</v>
       </c>
       <c r="Y80" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA80">
         <v>5767.93</v>
@@ -3374,16 +3434,16 @@
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="T81">
         <v>1</v>
       </c>
       <c r="Y81" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA81">
         <v>3360.56</v>
@@ -3394,16 +3454,16 @@
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C82" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="T82">
         <v>8</v>
       </c>
       <c r="Y82" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AA82">
         <v>1556.52</v>
@@ -3414,16 +3474,16 @@
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C83" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="T83">
         <v>7</v>
       </c>
       <c r="Y83" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AA83">
         <v>1556.52</v>
@@ -3434,16 +3494,16 @@
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C84" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="T84">
         <v>3</v>
       </c>
       <c r="Y84" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AA84">
         <v>1556.52</v>
@@ -3454,16 +3514,16 @@
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C85" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="T85">
         <v>5</v>
       </c>
       <c r="Y85" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AA85">
         <v>1556.52</v>
@@ -3474,16 +3534,16 @@
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="T86">
         <v>1</v>
       </c>
       <c r="Y86" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA86">
         <v>5841.71</v>
@@ -3494,16 +3554,16 @@
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="T87">
         <v>1</v>
       </c>
       <c r="Y87" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA87">
         <v>13679.05</v>
@@ -3514,16 +3574,16 @@
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="T88">
         <v>4</v>
       </c>
       <c r="Y88" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA88">
         <v>7042.42</v>
@@ -3534,16 +3594,16 @@
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C89" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="T89">
         <v>5</v>
       </c>
       <c r="Y89" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AA89">
         <v>1556.52</v>
@@ -3554,16 +3614,16 @@
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C90" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="T90">
         <v>3</v>
       </c>
       <c r="Y90" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AA90">
         <v>1556.52</v>
@@ -3574,16 +3634,16 @@
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C91" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="T91">
         <v>4</v>
       </c>
       <c r="Y91" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA91">
         <v>1556.52</v>
@@ -3594,16 +3654,16 @@
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C92" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="T92">
         <v>8</v>
       </c>
       <c r="Y92" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AA92">
         <v>1556.52</v>
@@ -3614,16 +3674,16 @@
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C93" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="T93">
         <v>4</v>
       </c>
       <c r="Y93" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA93">
         <v>980.56</v>
@@ -3634,16 +3694,16 @@
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C94" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="T94">
         <v>2</v>
       </c>
       <c r="Y94" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA94">
         <v>980.56</v>
@@ -3654,16 +3714,16 @@
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C95" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="T95">
         <v>7</v>
       </c>
       <c r="Y95" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AA95">
         <v>980.56</v>
@@ -3674,16 +3734,16 @@
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C96" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="T96">
         <v>2</v>
       </c>
       <c r="Y96" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA96">
         <v>1556.52</v>
@@ -3694,16 +3754,16 @@
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C97" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="T97">
         <v>2</v>
       </c>
       <c r="Y97" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA97">
         <v>6247.5</v>
@@ -3714,16 +3774,16 @@
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C98" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="T98">
         <v>1</v>
       </c>
       <c r="Y98" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA98">
         <v>14494.2</v>
@@ -3734,16 +3794,16 @@
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C99" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="T99">
         <v>10</v>
       </c>
       <c r="Y99" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AA99">
         <v>1556.52</v>
@@ -3754,16 +3814,16 @@
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C100" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="T100">
         <v>2</v>
       </c>
       <c r="Y100" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA100">
         <v>23628</v>
@@ -3774,16 +3834,16 @@
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C101" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="T101">
         <v>1</v>
       </c>
       <c r="Y101" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA101">
         <v>9865.1</v>
@@ -3794,16 +3854,16 @@
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C102" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="T102">
         <v>1</v>
       </c>
       <c r="Y102" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA102">
         <v>6090.42</v>
@@ -3814,16 +3874,16 @@
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C103" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="T103">
         <v>2</v>
       </c>
       <c r="Y103" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA103">
         <v>5406.17</v>
@@ -3834,16 +3894,16 @@
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C104" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="T104">
         <v>2</v>
       </c>
       <c r="Y104" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA104">
         <v>8625.1200000000008</v>
@@ -3854,16 +3914,16 @@
     </row>
     <row r="105" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C105" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="T105">
         <v>4</v>
       </c>
       <c r="Y105" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA105">
         <v>1280.44</v>
@@ -3874,16 +3934,16 @@
     </row>
     <row r="106" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C106" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="T106">
         <v>8</v>
       </c>
       <c r="Y106" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AA106">
         <v>5617.99</v>
@@ -3894,16 +3954,16 @@
     </row>
     <row r="107" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C107" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="T107">
         <v>1</v>
       </c>
       <c r="Y107" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA107">
         <v>5669.16</v>
@@ -3914,16 +3974,16 @@
     </row>
     <row r="108" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C108" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="T108">
         <v>4</v>
       </c>
       <c r="Y108" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA108">
         <v>1129.31</v>
@@ -3934,16 +3994,16 @@
     </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C109" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="T109">
         <v>9</v>
       </c>
       <c r="Y109" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AA109">
         <v>1119.79</v>
@@ -3954,16 +4014,16 @@
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C110" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="T110">
         <v>4</v>
       </c>
       <c r="Y110" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA110">
         <v>1119.79</v>
@@ -3974,16 +4034,16 @@
     </row>
     <row r="111" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C111" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="T111">
         <v>4</v>
       </c>
       <c r="Y111" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA111">
         <v>1048.3900000000001</v>
@@ -3994,16 +4054,16 @@
     </row>
     <row r="112" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C112" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="T112">
         <v>1</v>
       </c>
       <c r="Y112" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA112">
         <v>7006.72</v>
@@ -4014,16 +4074,16 @@
     </row>
     <row r="113" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C113" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="T113">
         <v>1</v>
       </c>
       <c r="Y113" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA113">
         <v>7189.98</v>
@@ -4034,16 +4094,16 @@
     </row>
     <row r="114" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C114" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="T114">
         <v>1</v>
       </c>
       <c r="Y114" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA114">
         <v>6828.22</v>
@@ -4054,16 +4114,16 @@
     </row>
     <row r="115" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C115" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="T115">
         <v>1</v>
       </c>
       <c r="Y115" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA115">
         <v>5811.96</v>
@@ -4074,16 +4134,16 @@
     </row>
     <row r="116" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C116" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="T116">
         <v>5</v>
       </c>
       <c r="Y116" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AA116">
         <v>3368.89</v>
@@ -4094,16 +4154,16 @@
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C117" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="T117">
         <v>1</v>
       </c>
       <c r="Y117" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA117">
         <v>5294.31</v>
@@ -4114,16 +4174,16 @@
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C118" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="T118">
         <v>2</v>
       </c>
       <c r="Y118" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA118">
         <v>7990.85</v>
@@ -4134,16 +4194,16 @@
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C119" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="T119">
         <v>10</v>
       </c>
       <c r="Y119" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AA119">
         <v>8093.19</v>
@@ -4154,16 +4214,16 @@
     </row>
     <row r="120" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C120" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="T120">
         <v>3</v>
       </c>
       <c r="Y120" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AA120">
         <v>22581.7137</v>
@@ -4174,16 +4234,16 @@
     </row>
     <row r="121" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C121" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="T121">
         <v>1</v>
       </c>
       <c r="Y121" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA121">
         <v>7017.43</v>
@@ -4194,16 +4254,16 @@
     </row>
     <row r="122" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C122" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="T122">
         <v>1</v>
       </c>
       <c r="Y122" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA122">
         <v>7017.43</v>
@@ -4214,16 +4274,16 @@
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C123" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="T123">
         <v>1</v>
       </c>
       <c r="Y123" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA123">
         <v>7017.43</v>
@@ -4234,16 +4294,16 @@
     </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C124" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="T124">
         <v>2</v>
       </c>
       <c r="Y124" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA124">
         <v>6767.53</v>
@@ -4254,16 +4314,16 @@
     </row>
     <row r="125" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C125" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="T125">
         <v>1</v>
       </c>
       <c r="Y125" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA125">
         <v>7087.64</v>
@@ -4274,16 +4334,16 @@
     </row>
     <row r="126" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C126" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="T126">
         <v>2</v>
       </c>
       <c r="Y126" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA126">
         <v>3535.49</v>
@@ -4294,16 +4354,16 @@
     </row>
     <row r="127" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C127" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="T127">
         <v>24</v>
       </c>
       <c r="Y127" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="AA127">
         <v>780.64</v>
@@ -4314,16 +4374,16 @@
     </row>
     <row r="128" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C128" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="T128">
         <v>1</v>
       </c>
       <c r="Y128" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA128">
         <v>4676.7</v>
@@ -4334,16 +4394,16 @@
     </row>
     <row r="129" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C129" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="T129">
         <v>2</v>
       </c>
       <c r="Y129" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA129">
         <v>3981.74</v>
@@ -4354,16 +4414,16 @@
     </row>
     <row r="130" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C130" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="T130">
         <v>13</v>
       </c>
       <c r="Y130" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="AA130">
         <v>1080.52</v>
@@ -4374,16 +4434,16 @@
     </row>
     <row r="131" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C131" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="T131">
         <v>13</v>
       </c>
       <c r="Y131" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="AA131">
         <v>1350.65</v>
@@ -4394,16 +4454,16 @@
     </row>
     <row r="132" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C132" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="T132">
         <v>12</v>
       </c>
       <c r="Y132" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AA132">
         <v>1350.65</v>
@@ -4414,16 +4474,16 @@
     </row>
     <row r="133" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C133" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="T133">
         <v>2</v>
       </c>
       <c r="Y133" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA133">
         <v>7189.98</v>
@@ -4434,16 +4494,16 @@
     </row>
     <row r="134" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C134" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="T134">
         <v>3</v>
       </c>
       <c r="Y134" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AA134">
         <v>1280.44</v>
@@ -4454,16 +4514,16 @@
     </row>
     <row r="135" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C135" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="T135">
         <v>2</v>
       </c>
       <c r="Y135" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA135">
         <v>10801.63</v>
@@ -4474,16 +4534,16 @@
     </row>
     <row r="136" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C136" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="T136">
         <v>24</v>
       </c>
       <c r="Y136" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="AA136">
         <v>749.7</v>
@@ -4494,16 +4554,16 @@
     </row>
     <row r="137" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C137" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="T137">
         <v>1</v>
       </c>
       <c r="Y137" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA137">
         <v>6280.82</v>
@@ -4514,16 +4574,16 @@
     </row>
     <row r="138" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C138" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="T138">
         <v>9</v>
       </c>
       <c r="Y138" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AA138">
         <v>6754.44</v>
@@ -4534,16 +4594,16 @@
     </row>
     <row r="139" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C139" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="T139">
         <v>2</v>
       </c>
       <c r="Y139" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA139">
         <v>7222.11</v>
@@ -4554,16 +4614,16 @@
     </row>
     <row r="140" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C140" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="T140">
         <v>2</v>
       </c>
       <c r="Y140" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA140">
         <v>5284.79</v>
@@ -4574,16 +4634,16 @@
     </row>
     <row r="141" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C141" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="T141">
         <v>3</v>
       </c>
       <c r="Y141" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AA141">
         <v>10955.14</v>
@@ -4594,16 +4654,16 @@
     </row>
     <row r="142" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C142" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="T142">
         <v>2</v>
       </c>
       <c r="Y142" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA142">
         <v>3402.21</v>
@@ -4614,16 +4674,16 @@
     </row>
     <row r="143" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C143" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="T143">
         <v>6</v>
       </c>
       <c r="Y143" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AA143">
         <v>1439.9</v>
@@ -4634,16 +4694,16 @@
     </row>
     <row r="144" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C144" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="T144">
         <v>1</v>
       </c>
       <c r="Y144" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA144">
         <v>17803.59</v>
@@ -4654,16 +4714,16 @@
     </row>
     <row r="145" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C145" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="T145">
         <v>2</v>
       </c>
       <c r="Y145" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA145">
         <v>9555.7000000000007</v>
@@ -4674,16 +4734,16 @@
     </row>
     <row r="146" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C146" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="T146">
         <v>1</v>
       </c>
       <c r="Y146" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA146">
         <v>9555.7000000000007</v>
@@ -4693,33 +4753,30 @@
       </c>
     </row>
     <row r="147" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <v>0</v>
-      </c>
       <c r="X147" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB147">
         <v>1324802.7298729999</v>
       </c>
     </row>
     <row r="148" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <v>0</v>
+      <c r="A148" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="149" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C149" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="T149">
         <v>20</v>
       </c>
       <c r="Y149" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="AA149">
         <v>1744.8375000000001</v>
@@ -4730,16 +4787,16 @@
     </row>
     <row r="150" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C150" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="T150">
         <v>17</v>
       </c>
       <c r="Y150" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AA150">
         <v>1241.61625</v>
@@ -4750,16 +4807,16 @@
     </row>
     <row r="151" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C151" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="T151">
         <v>10</v>
       </c>
       <c r="Y151" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AA151">
         <v>1554.14</v>
@@ -4770,16 +4827,16 @@
     </row>
     <row r="152" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="C152" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="T152">
         <v>10</v>
       </c>
       <c r="Y152" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AA152">
         <v>1554.14</v>
@@ -4790,16 +4847,16 @@
     </row>
     <row r="153" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C153" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="T153">
         <v>10</v>
       </c>
       <c r="Y153" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AA153">
         <v>1554.14</v>
@@ -4810,16 +4867,16 @@
     </row>
     <row r="154" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C154" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="T154">
         <v>10</v>
       </c>
       <c r="Y154" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AA154">
         <v>1786.5618750000001</v>
@@ -4830,16 +4887,16 @@
     </row>
     <row r="155" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C155" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="T155">
         <v>10</v>
       </c>
       <c r="Y155" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AA155">
         <v>1786.5618750000001</v>
@@ -4850,16 +4907,16 @@
     </row>
     <row r="156" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C156" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="T156">
         <v>10</v>
       </c>
       <c r="Y156" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AA156">
         <v>1554.14</v>
@@ -4870,16 +4927,16 @@
     </row>
     <row r="157" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="C157" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="T157">
         <v>7</v>
       </c>
       <c r="Y157" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AA157">
         <v>2546.4512500000001</v>
@@ -4890,16 +4947,16 @@
     </row>
     <row r="158" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C158" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="T158">
         <v>10</v>
       </c>
       <c r="Y158" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AA158">
         <v>2213.4</v>
@@ -4910,16 +4967,16 @@
     </row>
     <row r="159" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C159" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="T159">
         <v>12</v>
       </c>
       <c r="Y159" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AA159">
         <v>2213.4</v>
@@ -4930,16 +4987,16 @@
     </row>
     <row r="160" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C160" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="T160">
         <v>7</v>
       </c>
       <c r="Y160" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AA160">
         <v>2213.4</v>
@@ -4950,16 +5007,16 @@
     </row>
     <row r="161" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C161" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="T161">
         <v>12</v>
       </c>
       <c r="Y161" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AA161">
         <v>2546.4512500000001</v>
@@ -4970,16 +5027,16 @@
     </row>
     <row r="162" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C162" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="T162">
         <v>2</v>
       </c>
       <c r="Y162" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA162">
         <v>2213.4</v>
@@ -4990,16 +5047,16 @@
     </row>
     <row r="163" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C163" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="T163">
         <v>2</v>
       </c>
       <c r="Y163" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA163">
         <v>2546.4512500000001</v>
@@ -5010,16 +5067,16 @@
     </row>
     <row r="164" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C164" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="T164">
         <v>7</v>
       </c>
       <c r="Y164" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AA164">
         <v>2213.4</v>
@@ -5030,16 +5087,16 @@
     </row>
     <row r="165" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C165" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="T165">
         <v>12</v>
       </c>
       <c r="Y165" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AA165">
         <v>2546.4512500000001</v>
@@ -5049,33 +5106,30 @@
       </c>
     </row>
     <row r="166" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A166">
-        <v>0</v>
-      </c>
       <c r="X166" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB166">
         <v>322043.15500000003</v>
       </c>
     </row>
     <row r="167" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A167">
-        <v>0</v>
+      <c r="A167" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="168" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="C168" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="T168">
         <v>13</v>
       </c>
       <c r="Y168" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="AA168">
         <v>10650.5</v>
@@ -5086,16 +5140,16 @@
     </row>
     <row r="169" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="C169" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="T169">
         <v>1</v>
       </c>
       <c r="Y169" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA169">
         <v>31277.627906999998</v>
@@ -5106,16 +5160,16 @@
     </row>
     <row r="170" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="C170" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="T170">
         <v>19</v>
       </c>
       <c r="Y170" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="AA170">
         <v>5789.0870930000001</v>
@@ -5126,16 +5180,16 @@
     </row>
     <row r="171" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="C171" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="T171">
         <v>48</v>
       </c>
       <c r="Y171" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="AA171">
         <v>2933.1562800000002</v>
@@ -5146,16 +5200,16 @@
     </row>
     <row r="172" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="C172" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="T172">
         <v>34</v>
       </c>
       <c r="Y172" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="AA172">
         <v>1147.661666</v>
@@ -5166,16 +5220,16 @@
     </row>
     <row r="173" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="C173" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="T173">
         <v>48</v>
       </c>
       <c r="Y173" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AA173">
         <v>1147.661666</v>
@@ -5186,16 +5240,16 @@
     </row>
     <row r="174" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="C174" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="T174">
         <v>10</v>
       </c>
       <c r="Y174" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AA174">
         <v>1147.661666</v>
@@ -5206,16 +5260,16 @@
     </row>
     <row r="175" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="C175" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="T175">
         <v>3</v>
       </c>
       <c r="Y175" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AA175">
         <v>1967.7</v>
@@ -5225,33 +5279,30 @@
       </c>
     </row>
     <row r="176" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A176">
-        <v>0</v>
-      </c>
       <c r="X176" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB176">
         <v>532006.25734000001</v>
       </c>
     </row>
     <row r="177" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>0</v>
+      <c r="A177" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="178" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C178" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="T178">
         <v>2</v>
       </c>
       <c r="Y178" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA178">
         <v>2462.4728070000001</v>
@@ -5262,16 +5313,16 @@
     </row>
     <row r="179" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="C179" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="T179">
         <v>2</v>
       </c>
       <c r="Y179" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA179">
         <v>2462.4728070000001</v>
@@ -5282,16 +5333,16 @@
     </row>
     <row r="180" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="C180" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="T180">
         <v>2</v>
       </c>
       <c r="Y180" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA180">
         <v>11520.331952</v>
@@ -5302,16 +5353,16 @@
     </row>
     <row r="181" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="C181" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="T181">
         <v>1</v>
       </c>
       <c r="Y181" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA181">
         <v>11520.331952</v>
@@ -5322,16 +5373,16 @@
     </row>
     <row r="182" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="C182" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="T182">
         <v>1</v>
       </c>
       <c r="Y182" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA182">
         <v>10496.627193</v>
@@ -5342,16 +5393,16 @@
     </row>
     <row r="183" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="C183" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="T183">
         <v>1</v>
       </c>
       <c r="Y183" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA183">
         <v>9399.7664580000001</v>
@@ -5361,33 +5412,30 @@
       </c>
     </row>
     <row r="184" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A184">
-        <v>0</v>
-      </c>
       <c r="X184" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB184">
         <v>64307.280735</v>
       </c>
     </row>
     <row r="185" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A185">
-        <v>0</v>
+      <c r="A185" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="186" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="C186" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="T186">
         <v>12</v>
       </c>
       <c r="Y186" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AA186">
         <v>2842.5</v>
@@ -5398,16 +5446,16 @@
     </row>
     <row r="187" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="C187" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="T187">
         <v>5</v>
       </c>
       <c r="Y187" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AA187">
         <v>14176.25</v>
@@ -5417,33 +5465,30 @@
       </c>
     </row>
     <row r="188" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A188">
-        <v>0</v>
-      </c>
       <c r="X188" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB188">
         <v>104991.25</v>
       </c>
     </row>
     <row r="189" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A189">
-        <v>0</v>
+      <c r="A189" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="190" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="C190" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="T190">
         <v>7</v>
       </c>
       <c r="Y190" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AA190">
         <v>6345.08</v>
@@ -5453,33 +5498,30 @@
       </c>
     </row>
     <row r="191" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A191">
-        <v>0</v>
-      </c>
       <c r="X191" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB191">
         <v>44415.56</v>
       </c>
     </row>
     <row r="192" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A192">
-        <v>0</v>
+      <c r="A192" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="193" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="C193" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="T193">
         <v>2</v>
       </c>
       <c r="Y193" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA193">
         <v>5039.5783140000003</v>
@@ -5490,16 +5532,16 @@
     </row>
     <row r="194" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="C194" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="T194">
         <v>1</v>
       </c>
       <c r="Y194" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA194">
         <v>7491.05</v>
@@ -5510,16 +5552,16 @@
     </row>
     <row r="195" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="C195" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="T195">
         <v>1</v>
       </c>
       <c r="Y195" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA195">
         <v>9847.25</v>
@@ -5530,16 +5572,16 @@
     </row>
     <row r="196" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="C196" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="T196">
         <v>1</v>
       </c>
       <c r="Y196" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA196">
         <v>27106.321811000002</v>
@@ -5550,16 +5592,16 @@
     </row>
     <row r="197" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="C197" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="T197">
         <v>1</v>
       </c>
       <c r="Y197" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA197">
         <v>32144.337346</v>
@@ -5570,16 +5612,16 @@
     </row>
     <row r="198" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="C198" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="T198">
         <v>3</v>
       </c>
       <c r="Y198" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AA198">
         <v>8400.0000010000003</v>
@@ -5590,16 +5632,16 @@
     </row>
     <row r="199" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="C199" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="T199">
         <v>1</v>
       </c>
       <c r="Y199" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA199">
         <v>9806.7469930000007</v>
@@ -5610,16 +5652,16 @@
     </row>
     <row r="200" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="C200" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="T200">
         <v>2</v>
       </c>
       <c r="Y200" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA200">
         <v>8400.0000010000003</v>
@@ -5629,33 +5671,30 @@
       </c>
     </row>
     <row r="201" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A201">
-        <v>0</v>
-      </c>
       <c r="X201" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB201">
         <v>138474.86278299999</v>
       </c>
     </row>
     <row r="202" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A202">
-        <v>0</v>
+      <c r="A202" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="203" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="C203" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="T203">
         <v>1</v>
       </c>
       <c r="Y203" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AA203">
         <v>23440.097566</v>
@@ -5666,16 +5705,16 @@
     </row>
     <row r="204" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="C204" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="T204">
         <v>1</v>
       </c>
       <c r="Y204" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA204">
         <v>7813.365855</v>
@@ -5685,33 +5724,30 @@
       </c>
     </row>
     <row r="205" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A205">
-        <v>0</v>
-      </c>
       <c r="X205" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB205">
         <v>31253.463421</v>
       </c>
     </row>
     <row r="206" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A206">
-        <v>0</v>
+      <c r="A206" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="207" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="C207" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="T207">
         <v>1</v>
       </c>
       <c r="Y207" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA207">
         <v>10083</v>
@@ -5722,16 +5758,16 @@
     </row>
     <row r="208" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="C208" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="T208">
         <v>1</v>
       </c>
       <c r="Y208" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA208">
         <v>10083</v>
@@ -5742,16 +5778,16 @@
     </row>
     <row r="209" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="C209" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="T209">
         <v>1</v>
       </c>
       <c r="Y209" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA209">
         <v>10797.390625</v>
@@ -5761,33 +5797,30 @@
       </c>
     </row>
     <row r="210" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A210">
-        <v>0</v>
-      </c>
       <c r="X210" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB210">
         <v>30963.390625</v>
       </c>
     </row>
     <row r="211" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A211">
-        <v>0</v>
+      <c r="A211" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="212" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="C212" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="T212">
         <v>1</v>
       </c>
       <c r="Y212" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AA212">
         <v>14839.74444</v>
@@ -5798,16 +5831,16 @@
     </row>
     <row r="213" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="C213" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="T213">
         <v>3</v>
       </c>
       <c r="Y213" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AA213">
         <v>17906.220002999999</v>
@@ -5817,33 +5850,30 @@
       </c>
     </row>
     <row r="214" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A214">
-        <v>0</v>
-      </c>
       <c r="X214" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB214">
         <v>68558.404448999994</v>
       </c>
     </row>
     <row r="215" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A215">
-        <v>0</v>
+      <c r="A215" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="216" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="C216" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="T216">
         <v>1</v>
       </c>
       <c r="Y216" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA216">
         <v>27873.493979999999</v>
@@ -5854,16 +5884,16 @@
     </row>
     <row r="217" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="C217" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="T217">
         <v>2</v>
       </c>
       <c r="Y217" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA217">
         <v>9646</v>
@@ -5874,16 +5904,16 @@
     </row>
     <row r="218" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="C218" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="T218">
         <v>1</v>
       </c>
       <c r="Y218" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA218">
         <v>32083</v>
@@ -5894,16 +5924,16 @@
     </row>
     <row r="219" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="C219" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="T219">
         <v>3</v>
       </c>
       <c r="Y219" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AA219">
         <v>28312.048190000001</v>
@@ -5914,16 +5944,16 @@
     </row>
     <row r="220" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="C220" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="T220">
         <v>1</v>
       </c>
       <c r="Y220" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AA220">
         <v>28139.759040000001</v>
@@ -5933,33 +5963,30 @@
       </c>
     </row>
     <row r="221" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A221">
-        <v>0</v>
-      </c>
       <c r="X221" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB221">
         <v>192324.39759000001</v>
       </c>
     </row>
     <row r="222" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A222">
-        <v>0</v>
+      <c r="A222" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="223" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="C223" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="T223">
         <v>6</v>
       </c>
       <c r="Y223" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AA223">
         <v>1095.3685579999999</v>
@@ -5970,16 +5997,16 @@
     </row>
     <row r="224" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="C224" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="T224">
         <v>6</v>
       </c>
       <c r="Y224" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AA224">
         <v>2022.2198840000001</v>
@@ -5990,16 +6017,16 @@
     </row>
     <row r="225" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="C225" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="T225">
         <v>5</v>
       </c>
       <c r="Y225" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AA225">
         <v>2022.2198840000001</v>
@@ -6010,16 +6037,16 @@
     </row>
     <row r="226" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="C226" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="T226">
         <v>6</v>
       </c>
       <c r="Y226" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AA226">
         <v>2527.9698840000001</v>
@@ -6030,16 +6057,16 @@
     </row>
     <row r="227" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="C227" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="T227">
         <v>2</v>
       </c>
       <c r="Y227" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA227">
         <v>1179.1577789999999</v>
@@ -6050,16 +6077,16 @@
     </row>
     <row r="228" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="C228" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="T228">
         <v>2</v>
       </c>
       <c r="Y228" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA228">
         <v>1179.1577789999999</v>
@@ -6070,16 +6097,16 @@
     </row>
     <row r="229" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="C229" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="T229">
         <v>6</v>
       </c>
       <c r="Y229" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AA229">
         <v>4128.1099999999997</v>
@@ -6090,16 +6117,16 @@
     </row>
     <row r="230" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="C230" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="T230">
         <v>5</v>
       </c>
       <c r="Y230" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AA230">
         <v>14562.03</v>
@@ -6110,16 +6137,16 @@
     </row>
     <row r="231" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="C231" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="T231">
         <v>2</v>
       </c>
       <c r="Y231" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AA231">
         <v>14562.03</v>
@@ -6130,16 +6157,16 @@
     </row>
     <row r="232" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="C232" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="T232">
         <v>6</v>
       </c>
       <c r="Y232" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AA232">
         <v>3524.2180579999999</v>
@@ -6150,16 +6177,16 @@
     </row>
     <row r="233" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="C233" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="T233">
         <v>4</v>
       </c>
       <c r="Y233" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA233">
         <v>8190.77</v>
@@ -6170,16 +6197,16 @@
     </row>
     <row r="234" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="C234" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="T234">
         <v>2</v>
       </c>
       <c r="Y234" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA234">
         <v>11776.597</v>
@@ -6190,16 +6217,16 @@
     </row>
     <row r="235" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="C235" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="T235">
         <v>6</v>
       </c>
       <c r="Y235" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AA235">
         <v>2530.3807400000001</v>
@@ -6210,16 +6237,16 @@
     </row>
     <row r="236" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="C236" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="T236">
         <v>6</v>
       </c>
       <c r="Y236" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AA236">
         <v>2190.7503369999999</v>
@@ -6230,16 +6257,16 @@
     </row>
     <row r="237" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="C237" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="T237">
         <v>25</v>
       </c>
       <c r="Y237" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="AA237">
         <v>3370.3708839999999</v>
@@ -6250,16 +6277,16 @@
     </row>
     <row r="238" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="C238" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="T238">
         <v>4</v>
       </c>
       <c r="Y238" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA238">
         <v>14559.97725</v>
@@ -6270,16 +6297,16 @@
     </row>
     <row r="239" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="C239" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="T239">
         <v>3</v>
       </c>
       <c r="Y239" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AA239">
         <v>12375.140557999999</v>
@@ -6290,16 +6317,16 @@
     </row>
     <row r="240" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="C240" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="T240">
         <v>6</v>
       </c>
       <c r="Y240" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AA240">
         <v>1288.6774419999999</v>
@@ -6310,16 +6337,16 @@
     </row>
     <row r="241" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="C241" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="T241">
         <v>6</v>
       </c>
       <c r="Y241" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AA241">
         <v>12374.81</v>
@@ -6330,16 +6357,16 @@
     </row>
     <row r="242" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="C242" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="T242">
         <v>18</v>
       </c>
       <c r="Y242" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="AA242">
         <v>2623.0244419999999</v>
@@ -6350,16 +6377,16 @@
     </row>
     <row r="243" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="C243" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="T243">
         <v>18</v>
       </c>
       <c r="Y243" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="AA243">
         <v>2623.0112210000002</v>
@@ -6370,16 +6397,16 @@
     </row>
     <row r="244" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="C244" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="T244">
         <v>1</v>
       </c>
       <c r="Y244" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA244">
         <v>19702.750662999999</v>
@@ -6390,16 +6417,16 @@
     </row>
     <row r="245" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="C245" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="T245">
         <v>6</v>
       </c>
       <c r="Y245" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AA245">
         <v>2042.04</v>
@@ -6410,16 +6437,16 @@
     </row>
     <row r="246" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="C246" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="T246">
         <v>1</v>
       </c>
       <c r="Y246" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AA246">
         <v>19877.231115999999</v>
@@ -6430,16 +6457,16 @@
     </row>
     <row r="247" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="C247" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="T247">
         <v>1</v>
       </c>
       <c r="Y247" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA247">
         <v>12135.699337</v>
@@ -6450,16 +6477,16 @@
     </row>
     <row r="248" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="C248" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="T248">
         <v>14</v>
       </c>
       <c r="Y248" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="AA248">
         <v>1516.06</v>
@@ -6470,16 +6497,16 @@
     </row>
     <row r="249" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="C249" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="T249">
         <v>4</v>
       </c>
       <c r="Y249" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA249">
         <v>13143.930134</v>
@@ -6490,16 +6517,16 @@
     </row>
     <row r="250" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="C250" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="T250">
         <v>1</v>
       </c>
       <c r="Y250" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA250">
         <v>11122.642972</v>
@@ -6510,16 +6537,16 @@
     </row>
     <row r="251" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="C251" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="T251">
         <v>3</v>
       </c>
       <c r="Y251" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AA251">
         <v>2501.4989999999998</v>
@@ -6530,16 +6557,16 @@
     </row>
     <row r="252" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="C252" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="T252">
         <v>2</v>
       </c>
       <c r="Y252" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA252">
         <v>7370.0005579999997</v>
@@ -6550,16 +6577,16 @@
     </row>
     <row r="253" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="C253" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="T253">
         <v>6</v>
       </c>
       <c r="Y253" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AA253">
         <v>2501.4989999999998</v>
@@ -6570,16 +6597,16 @@
     </row>
     <row r="254" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="C254" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="T254">
         <v>2</v>
       </c>
       <c r="Y254" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA254">
         <v>15368.757442</v>
@@ -6590,16 +6617,16 @@
     </row>
     <row r="255" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="C255" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="T255">
         <v>1</v>
       </c>
       <c r="Y255" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA255">
         <v>13648.11</v>
@@ -6610,16 +6637,16 @@
     </row>
     <row r="256" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="C256" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="T256">
         <v>3</v>
       </c>
       <c r="Y256" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AA256">
         <v>2501.38</v>
@@ -6630,16 +6657,16 @@
     </row>
     <row r="257" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="C257" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="T257">
         <v>6</v>
       </c>
       <c r="Y257" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AA257">
         <v>2501.4989999999998</v>
@@ -6650,16 +6677,16 @@
     </row>
     <row r="258" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="C258" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="T258">
         <v>2</v>
       </c>
       <c r="Y258" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA258">
         <v>8190.77</v>
@@ -6669,33 +6696,30 @@
       </c>
     </row>
     <row r="259" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A259">
-        <v>0</v>
-      </c>
       <c r="X259" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB259">
         <v>906651.40427000006</v>
       </c>
     </row>
     <row r="260" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A260">
-        <v>0</v>
+      <c r="A260" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="261" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="C261" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="T261">
         <v>8</v>
       </c>
       <c r="Y261" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AA261">
         <v>928.2</v>
@@ -6706,16 +6730,16 @@
     </row>
     <row r="262" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="C262" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="T262">
         <v>1</v>
       </c>
       <c r="Y262" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA262">
         <v>10412.5</v>
@@ -6726,16 +6750,16 @@
     </row>
     <row r="263" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="C263" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="T263">
         <v>3</v>
       </c>
       <c r="Y263" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AA263">
         <v>1965.88</v>
@@ -6746,16 +6770,16 @@
     </row>
     <row r="264" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="C264" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="T264">
         <v>1</v>
       </c>
       <c r="Y264" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA264">
         <v>722.92499999999995</v>
@@ -6766,22 +6790,63 @@
     </row>
     <row r="265" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="C265" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="T265">
         <v>1</v>
       </c>
       <c r="Y265" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA265">
         <v>16796.849999999999</v>
       </c>
       <c r="AF265">
         <v>16796.849999999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X266" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB266">
+        <v>41255.514999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>513</v>
+      </c>
+      <c r="L268" t="s">
+        <v>514</v>
+      </c>
+      <c r="M268" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="269" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>516</v>
+      </c>
+      <c r="L269" t="s">
+        <v>517</v>
+      </c>
+      <c r="M269">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="270" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>518</v>
+      </c>
+      <c r="L270" t="s">
+        <v>519</v>
+      </c>
+      <c r="M270">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/logistica/cargue.xlsx
+++ b/logistica/cargue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectosWeb\assigment\logistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0915EF1A-CD19-4586-819B-BF36F770DD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44276DFC-D678-43EB-A09E-7ED16DB79A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9BC25289-FCA6-4F49-AC5D-3FADFA3753A0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="514">
   <si>
     <t>Descripción</t>
   </si>
@@ -1572,27 +1572,6 @@
   </si>
   <si>
     <t>VELON BLANCO 02 *12 PEQ</t>
-  </si>
-  <si>
-    <t>Asesores</t>
-  </si>
-  <si>
-    <t>Telefono</t>
-  </si>
-  <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
-    <t>JOSE DAVID CALDERON CASAS</t>
-  </si>
-  <si>
-    <t>3177309102</t>
-  </si>
-  <si>
-    <t>JEISSON HERNANDO GARCIA</t>
-  </si>
-  <si>
-    <t>3155152244</t>
   </si>
   <si>
     <t>Codigo</t>
@@ -1947,17 +1926,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8EA2C0-375B-419A-9E83-8A98608339E7}">
-  <dimension ref="A1:AF270"/>
+  <dimension ref="A1:AF266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="K267" sqref="K267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -6814,39 +6793,6 @@
       </c>
       <c r="AB266">
         <v>41255.514999999999</v>
-      </c>
-    </row>
-    <row r="268" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>513</v>
-      </c>
-      <c r="L268" t="s">
-        <v>514</v>
-      </c>
-      <c r="M268" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="269" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
-        <v>516</v>
-      </c>
-      <c r="L269" t="s">
-        <v>517</v>
-      </c>
-      <c r="M269">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="270" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
-        <v>518</v>
-      </c>
-      <c r="L270" t="s">
-        <v>519</v>
-      </c>
-      <c r="M270">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
